--- a/public/sample/template-invite-respondent.xlsx
+++ b/public/sample/template-invite-respondent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Website\cobit\cobit19-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Website\cobit\cobit19-app\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCBAC97-6544-4FA2-9EF5-D7FF4EDE9008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609AB10C-4AF4-49D6-B764-5B36F41AC608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>Divisi</t>
   </si>
   <si>
-    <t>Posisi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nama </t>
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -385,16 +387,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
